--- a/biology/Zoologie/Apostolepis_ambiniger/Apostolepis_ambiniger.xlsx
+++ b/biology/Zoologie/Apostolepis_ambiniger/Apostolepis_ambiniger.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Apostolepis ambiniger est une espèce de serpents de la famille des Dipsadidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Apostolepis ambiniger est une espèce de serpents de la famille des Dipsadidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre dans l'Ouest du Brésil, au Paraguay et en Bolivie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre dans l'Ouest du Brésil, au Paraguay et en Bolivie.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Peters, 1869 : Über neue Gattungen und neue oder weniger bekannte Arten von Amphibien (Eremias, Dicrodon, Euprepes, Lygosoma, Typhlops, Eryx, Rhynchonyx, Elapomorphus, Achalinus, Coronella, Dromicus, Xenopholis, Anoplodipsas, Spilotes, Tropidonotus). Monatsberichte der Königlich Preussischen Akademie der Wissenschaften zu Berlin, vol. 1869, p. 432-447 (texte intégral).</t>
         </is>
